--- a/監視設定チェックシート_GetperfALL.xlsx
+++ b/監視設定チェックシート_GetperfALL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>yps2na</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>data_transfer</t>
   </si>
   <si>
@@ -155,6 +151,10 @@
   </si>
   <si>
     <t>Cacti監視サーバのエージェント定義名</t>
+  </si>
+  <si>
+    <t>ostrich</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,10 +721,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -741,10 +741,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -781,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -801,7 +801,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1031,10 +1031,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -1043,7 +1043,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1529,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:F23"/>
     </sheetView>
   </sheetViews>
@@ -1579,10 +1579,10 @@
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
